--- a/05 障害特性シート/自己紹介シート.xlsx
+++ b/05 障害特性シート/自己紹介シート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D2360A-9395-454A-9769-821C90F1ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A235BEF2-8299-43B2-B2E6-597C88DBF604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>自己紹介シート</t>
     <rPh sb="0" eb="4">
@@ -185,55 +185,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>体力には自信があり、週５日通勤して働くことができる.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一つ一つのことに確実に取り組むことができます。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクジツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定型的な仕事、反復継続するような仕事は得意で、集中して行うことができます。</t>
-    <rPh sb="0" eb="3">
-      <t>テイケイテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トクイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>体力には自信があり、週５日通勤して働くことができる</t>
+  </si>
+  <si>
+    <t>一つ一つのことに確実に取り組むことができます</t>
+  </si>
+  <si>
+    <t>定型的な仕事、反復継続するような仕事は得意で、集中して行うことができます</t>
   </si>
   <si>
     <t>　苦手な分野（業務）障がいがあることで行うことが難しい業務</t>
@@ -296,20 +254,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メモを取る、担当者に再度確認する。</t>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>メモを取る、担当者に再度確認する</t>
+  </si>
+  <si>
+    <t>周りの雑音で集中できなくなる</t>
+  </si>
+  <si>
+    <t>耳栓をして緩和する</t>
   </si>
   <si>
     <t>仕事上イレギュラーなことが起こると混乱する</t>
@@ -514,47 +465,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,10 +824,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O43"/>
+  <dimension ref="B2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -888,191 +839,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="18.75">
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="18.75">
-      <c r="B6" s="3"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="18.75">
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1">
-      <c r="B8" s="3"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:9" ht="18.75">
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="3"/>
-      <c r="C10" s="10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="15">
         <v>44994</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:9" ht="18.75">
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:9" ht="67.5">
-      <c r="B12" s="3"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18.75">
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:9" ht="18.75">
-      <c r="B14" s="3"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:9" ht="18.75">
-      <c r="B15" s="3"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:9" ht="18.75">
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:15" ht="18.75">
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1034,7 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:15" ht="18.75">
-      <c r="B18" s="3"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
@@ -1094,7 +1045,7 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:15" ht="18.75">
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
@@ -1105,32 +1056,32 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:15" ht="18.75">
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>8</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:15" ht="18.75">
-      <c r="B21" s="3"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="4"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1139,17 +1090,17 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:15" ht="18.75">
-      <c r="B22" s="3"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="6" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="4"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1158,17 +1109,17 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:15" ht="18.75">
-      <c r="B23" s="3">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1177,13 +1128,17 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" ht="18.75">
-      <c r="B24" s="3"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="B24" s="5">
+        <v>9</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1192,28 +1147,42 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:15" ht="18.75">
-      <c r="B25" s="3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="2:15" ht="18.75">
+      <c r="B26" s="5">
         <v>10</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="2:15" ht="18.75">
-      <c r="B26" s="3"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="2:15" ht="18.75"/>
+      <c r="C26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:15" ht="18.75">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
     <row r="28" spans="2:15" ht="18.75"/>
     <row r="29" spans="2:15" ht="18.75"/>
     <row r="30" spans="2:15" ht="18.75"/>
@@ -1226,30 +1195,15 @@
     <row r="37" ht="18.75"/>
     <row r="38" ht="18.75"/>
     <row r="39" ht="18.75"/>
-    <row r="41" ht="18.75"/>
-    <row r="43" ht="18.75"/>
+    <row r="40" ht="18.75"/>
+    <row r="42" ht="18.75"/>
+    <row r="44" ht="18.75"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="41">
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C13:F13"/>
@@ -1264,11 +1218,29 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="B16:B19"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/05 障害特性シート/自己紹介シート.xlsx
+++ b/05 障害特性シート/自己紹介シート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A235BEF2-8299-43B2-B2E6-597C88DBF604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32E0C82-73C8-49BA-923C-F291CB0D2F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,16 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>自己紹介シート</t>
     <rPh sb="0" eb="4">
       <t>ジコショウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    令和　６年　２月　　日　　　 出村　和彦</t>
   </si>
   <si>
     <t>　障がい（診断名）</t>
@@ -340,6 +337,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -468,15 +468,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -489,22 +504,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,8 +826,8 @@
   </sheetPr>
   <dimension ref="B2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:H22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -839,249 +839,250 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="str">
+        <f ca="1">TEXT(TODAY(),"yyyy年m月d日")&amp;"　　　 出村　和彦"</f>
+        <v>2024年2月27日　　　 出村　和彦</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" ht="18.75">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" ht="18.75">
-      <c r="B5" s="5">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.75">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.75">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" ht="18.75">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" ht="18.75">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.75">
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.75">
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="15">
         <v>44994</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:9" ht="18.75">
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" ht="67.5">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:9" ht="67.5">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2" t="s">
+    </row>
+    <row r="13" spans="2:9" ht="18.75">
+      <c r="B13" s="7">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="18.75">
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" ht="18.75">
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:9" ht="18.75">
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" ht="18.75">
+      <c r="B15" s="7"/>
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.75">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.75">
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" ht="18.75">
-      <c r="B16" s="5">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" ht="18.75">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:15" ht="18.75">
-      <c r="B17" s="5"/>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:15" ht="18.75">
+      <c r="B18" s="7"/>
+      <c r="C18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="2:15" ht="18.75">
-      <c r="B18" s="5"/>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:15" ht="18.75">
+      <c r="B19" s="7"/>
+      <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="2:15" ht="18.75">
-      <c r="B19" s="5"/>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:15" ht="18.75">
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="2:15" ht="18.75">
-      <c r="B20" s="5">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" ht="18.75">
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:15" ht="18.75">
-      <c r="B21" s="5"/>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="5"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1090,17 +1091,17 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:15" ht="18.75">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="5"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1109,17 +1110,17 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:15" ht="18.75">
-      <c r="B23" s="5"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="5"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1128,17 +1129,17 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" ht="18.75">
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>9</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1147,13 +1148,13 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:15" ht="18.75">
-      <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1162,26 +1163,26 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="2:15" ht="18.75">
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>10</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:15" ht="18.75">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:15" ht="18.75"/>
     <row r="29" spans="2:15" ht="18.75"/>
@@ -1200,6 +1201,31 @@
     <row r="44" ht="18.75"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C22:F22"/>
@@ -1216,31 +1242,6 @@
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/05 障害特性シート/自己紹介シート.xlsx
+++ b/05 障害特性シート/自己紹介シート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\05 障害特性シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32E0C82-73C8-49BA-923C-F291CB0D2F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5E33B6-A36B-4850-A19B-8C5E86990056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>自己紹介シート</t>
     <rPh sb="0" eb="4">
@@ -182,9 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>体力には自信があり、週５日通勤して働くことができる</t>
-  </si>
-  <si>
     <t>一つ一つのことに確実に取り組むことができます</t>
   </si>
   <si>
@@ -329,6 +326,32 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在は精神状態も安定しているため、通院及び服薬は行っておりません。</t>
+  </si>
+  <si>
+    <t>仕事上の指示に関しては、優先順位、期間、クオリティ（測定可能な指標）、見通しなどを視覚的に示して頂きたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力には自信があり、週５日通勤して働くことができます（業務状況に応じて、土日祝出勤も可）</t>
+    <rPh sb="27" eb="31">
+      <t>ギョウムジョウキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,44 +491,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,9 +542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -565,7 +582,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -671,7 +688,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -813,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,13 +841,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O44"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
@@ -838,251 +855,251 @@
     <col min="8" max="8" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="8" t="str">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B4" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy年m月d日")&amp;"　　　 出村　和彦"</f>
-        <v>2024年2月27日　　　 出村　和彦</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" ht="18.75">
-      <c r="B5" s="7">
+        <v>2024年2月28日　　　 出村　和彦</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.75">
-      <c r="B6" s="7"/>
-      <c r="C6" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="18.75">
-      <c r="B7" s="7">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.75">
-      <c r="B9" s="7">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="7"/>
-      <c r="C10" s="15">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="6"/>
+      <c r="C10" s="10">
         <v>44994</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="2:9" ht="18.75">
-      <c r="B11" s="7">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" ht="67.5">
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" ht="52.9" x14ac:dyDescent="0.7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18.75">
-      <c r="B13" s="7">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" ht="18.75">
-      <c r="B14" s="7"/>
-      <c r="C14" s="4" t="s">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.75">
-      <c r="B15" s="7"/>
-      <c r="C15" s="4" t="s">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="18.75">
-      <c r="B16" s="7">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B16" s="6">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" ht="18.75">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:15" ht="18.75">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:15" ht="18.75">
-      <c r="B19" s="7"/>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B20" s="6">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:15" ht="18.75">
-      <c r="B20" s="7">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" ht="18.75">
-      <c r="B21" s="7"/>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="9"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1090,18 +1107,18 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" ht="18.75">
-      <c r="B22" s="7"/>
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="9"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1109,18 +1126,18 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" ht="18.75">
-      <c r="B23" s="7"/>
-      <c r="C23" s="4" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="9"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1128,18 +1145,18 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" ht="18.75">
-      <c r="B24" s="7">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B24" s="6">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1147,14 +1164,16 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" ht="18.75">
-      <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B25" s="6"/>
+      <c r="C25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1162,43 +1181,30 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" ht="18.75">
-      <c r="B26" s="7">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B26" s="6">
         <v>10</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B27" s="6"/>
+      <c r="C27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:15" ht="18.75">
-      <c r="B27" s="7"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="2:15" ht="18.75"/>
-    <row r="29" spans="2:15" ht="18.75"/>
-    <row r="30" spans="2:15" ht="18.75"/>
-    <row r="31" spans="2:15" ht="18.75"/>
-    <row r="32" spans="2:15" ht="18.75"/>
-    <row r="33" ht="18.75"/>
-    <row r="34" ht="18.75"/>
-    <row r="35" ht="18.75"/>
-    <row r="36" ht="18.75"/>
-    <row r="37" ht="18.75"/>
-    <row r="38" ht="18.75"/>
-    <row r="39" ht="18.75"/>
-    <row r="40" ht="18.75"/>
-    <row r="42" ht="18.75"/>
-    <row r="44" ht="18.75"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="C24:H24"/>
@@ -1210,6 +1216,9 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C16:H16"/>
@@ -1221,13 +1230,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C10:H10"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B2:H3"/>
@@ -1242,6 +1244,10 @@
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/05 障害特性シート/自己紹介シート.xlsx
+++ b/05 障害特性シート/自己紹介シート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\05 障害特性シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5E33B6-A36B-4850-A19B-8C5E86990056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{125FF00C-B61E-4B95-B00F-B9212228515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一つ一つのことに確実に取り組むことができます</t>
-  </si>
-  <si>
-    <t>定型的な仕事、反復継続するような仕事は得意で、集中して行うことができます</t>
+    <t>体力には自信があり、週５日通勤して働くことができます。（業務状況に応じて、土日祝出勤も可）</t>
+  </si>
+  <si>
+    <t>一つ一つのことに確実に取り組むことができます。</t>
+  </si>
+  <si>
+    <t>定型的な仕事、反復継続するような仕事は得意で、集中して行うことができます。</t>
   </si>
   <si>
     <t>　苦手な分野（業務）障がいがあることで行うことが難しい業務</t>
@@ -305,6 +308,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>仕事上の指示に関しては、優先順位、期間、クオリティ（測定可能な指標）、見通しなどを視覚的に示して頂きたいです。</t>
+  </si>
+  <si>
     <t>　上記以外で人事及び配属先部署の方へ</t>
     <rPh sb="1" eb="3">
       <t>ジョウキ</t>
@@ -331,29 +337,6 @@
   </si>
   <si>
     <t>現在は精神状態も安定しているため、通院及び服薬は行っておりません。</t>
-  </si>
-  <si>
-    <t>仕事上の指示に関しては、優先順位、期間、クオリティ（測定可能な指標）、見通しなどを視覚的に示して頂きたいです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体力には自信があり、週５日通勤して働くことができます（業務状況に応じて、土日祝出勤も可）</t>
-    <rPh sb="27" eb="31">
-      <t>ギョウムジョウキョウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ドニチ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -363,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -475,13 +458,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,38 +498,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,9 +555,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -582,7 +595,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -688,7 +701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -830,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,13 +854,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O27"/>
+  <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
@@ -855,251 +868,251 @@
     <col min="8" max="8" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B4" s="7" t="str">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="10" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy年m月d日")&amp;"　　　 出村　和彦"</f>
         <v>2024年2月28日　　　 出村　和彦</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B5" s="6">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="3"/>
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B7" s="6">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B9" s="6">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B10" s="6"/>
-      <c r="C10" s="10">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="3"/>
+      <c r="C10" s="8">
         <v>44994</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B11" s="6">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="52.9" x14ac:dyDescent="0.7">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="52.9">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B13" s="6">
+    <row r="13" spans="2:9">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B14" s="6"/>
-      <c r="C14" s="5" t="s">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="3"/>
+      <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B15" s="6"/>
-      <c r="C15" s="5" t="s">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="3"/>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B16" s="6">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B17" s="6"/>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B18" s="6"/>
-      <c r="C18" s="5" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="3"/>
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B19" s="6"/>
-      <c r="C19" s="5" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B20" s="6">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="3">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
+      <c r="C20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B21" s="6"/>
-      <c r="C21" s="5" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9" t="s">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="4"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1107,18 +1120,18 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9" t="s">
+    <row r="22" spans="2:15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="4"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1126,18 +1139,18 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="9" t="s">
+    <row r="23" spans="2:15" ht="18.75">
+      <c r="B23" s="3"/>
+      <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1145,18 +1158,18 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B24" s="6">
+    <row r="24" spans="2:15" ht="17.649999999999999" customHeight="1">
+      <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="C24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1164,16 +1177,16 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B25" s="6"/>
-      <c r="C25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
+    <row r="25" spans="2:15" ht="17.649999999999999" customHeight="1">
+      <c r="B25" s="13"/>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1181,41 +1194,49 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B26" s="6">
+    <row r="26" spans="2:15" ht="18.75">
+      <c r="B26" s="3">
         <v>10</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
+      <c r="C26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:15" ht="18.75"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C10:H10"/>
@@ -1232,22 +1253,15 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
